--- a/Expense Sheet.xlsx
+++ b/Expense Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>MIDAS Research and Development Centre India Private Limited</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Office Purpose  Advance Rcc Book</t>
+  </si>
+  <si>
+    <t>satuarday_food_Pathan surya ,Ashish kang sir and ravi sir</t>
   </si>
 </sst>
 </file>
@@ -1017,6 +1020,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,69 +1141,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,10 +1503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1526,16 +1529,16 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="109"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
       <c r="O1" s="6"/>
@@ -1545,16 +1548,16 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="6"/>
@@ -1564,16 +1567,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
       <c r="O3" s="6"/>
@@ -1583,16 +1586,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
       <c r="O4" s="6"/>
@@ -1629,99 +1632,99 @@
       <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="80" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:19" ht="10.5" customHeight="1">
-      <c r="A8" s="107"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="60"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="56"/>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="15"/>
       <c r="G9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="77">
+      <c r="J9" s="95">
         <f ca="1">TODAY()</f>
-        <v>42945</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+        <v>42955</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="56"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="111"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1779,16 +1782,16 @@
       <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="52" t="s">
         <v>16</v>
       </c>
@@ -1910,12 +1913,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34.5" customHeight="1">
+    <row r="20" spans="1:12" ht="60">
       <c r="A20" s="68">
-        <v>42930</v>
+        <v>42952</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1926,16 +1929,17 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="28">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30">
+      <c r="L20" s="71">
+        <f>1207+542</f>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="34.5" customHeight="1">
       <c r="A21" s="68">
         <v>42930</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1947,15 +1951,15 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="28">
-        <v>294</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30">
       <c r="A22" s="68">
-        <v>42933</v>
+        <v>42930</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1970,9 +1974,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="44"/>
-      <c r="B23" s="61"/>
+    <row r="23" spans="1:12" ht="30">
+      <c r="A23" s="68">
+        <v>42933</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1982,65 +1990,67 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="46"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A25" s="21" t="s">
+      <c r="L23" s="28">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="44"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="47"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="48"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="44"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="28"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="44"/>
@@ -2140,216 +2150,216 @@
       <c r="K34" s="14"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="46"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="44"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="25">
-        <f>SUM(C18:C35)</f>
+      <c r="B37" s="67"/>
+      <c r="C37" s="25">
+        <f t="shared" ref="C37:K37" si="0">SUM(C18:C36)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="25">
-        <f>SUM(D18:D35)</f>
+      <c r="D37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="25">
-        <f>SUM(E18:E35)</f>
+      <c r="E37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="25">
-        <f>SUM(F18:F35)</f>
+      <c r="F37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="25">
-        <f>SUM(G18:G35)</f>
+      <c r="G37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="25">
-        <f>SUM(H18:H35)</f>
+      <c r="H37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="25">
-        <f>SUM(I18:I35)</f>
+      <c r="I37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="25">
-        <f>SUM(J18:J35)</f>
+      <c r="J37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="25">
-        <f>SUM(K18:K35)</f>
+      <c r="K37" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="26">
-        <f>SUM(L16:L35)</f>
-        <v>4852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A38" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="39"/>
+      <c r="L37" s="26">
+        <f>SUM(L16:L36)</f>
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="27">
-        <f>SUM(C36:L36)</f>
-        <v>4852</v>
-      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="28"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5">
-      <c r="A40" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="H39" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="27">
+        <f>SUM(C37:L37)</f>
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="28">
-        <v>0</v>
-      </c>
+      <c r="H40" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="28"/>
     </row>
     <row r="41" spans="1:17" ht="16.5">
-      <c r="A41" s="41"/>
+      <c r="A41" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="28"/>
-    </row>
-    <row r="42" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
+      <c r="H41" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16.5">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="36">
-        <f>L38-L39</f>
-        <v>4852</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H42" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="28"/>
+    </row>
+    <row r="43" spans="1:17" ht="17.25" thickBot="1">
       <c r="A43" s="42"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="58"/>
-    </row>
-    <row r="44" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A44" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="39"/>
+      <c r="H43" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="36">
+        <f>L39-L40</f>
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A44" s="42"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="40"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="32"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="58"/>
     </row>
     <row r="45" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="C45" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="40"/>
@@ -2359,16 +2369,14 @@
       <c r="K45" s="12"/>
       <c r="L45" s="32"/>
     </row>
-    <row r="46" spans="1:17" ht="16.5">
-      <c r="A46" s="40" t="s">
-        <v>33</v>
-      </c>
+    <row r="46" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A46" s="40"/>
       <c r="B46" s="40"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="12"/>
@@ -2376,10 +2384,12 @@
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:17" ht="16.5">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2389,40 +2399,40 @@
       <c r="K47" s="12"/>
       <c r="L47" s="32"/>
     </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+    <row r="48" spans="1:17" ht="16.5">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="1:17">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -2464,8 +2474,36 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
     </row>
+    <row r="53" spans="1:17">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="C7:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A7:A8"/>
@@ -2473,20 +2511,6 @@
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="E4:L4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="69" orientation="portrait" r:id="rId1"/>
